--- a/assets/results/winter-league-2023-2024/LVAC Winter League Table 2023-24.xlsx
+++ b/assets/results/winter-league-2023-2024/LVAC Winter League Table 2023-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbalfe/Library/Mobile Documents/com~apple~CloudDocs/GitHub/LiffeyValleyAC.github.io/assets/results/winter-league-2023-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25350A1-DF43-E64E-9645-293095288026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444C898F-F2EA-9D46-A6B7-0C17681902A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{00A86852-E2FD-9042-B166-F46FB76A8DC4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="2" xr2:uid="{00A86852-E2FD-9042-B166-F46FB76A8DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="55" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="283">
   <si>
     <t>Provisional Rank</t>
   </si>
@@ -1371,6 +1371,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1383,13 +1384,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="945">
+  <dxfs count="154">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -1940,263 +1940,6 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -2208,250 +1951,8 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="14"/>
+        <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2472,6735 +1973,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -10032,7 +2804,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Balfe" refreshedDate="45349.906143055552" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="86" xr:uid="{7249213A-C349-314B-B63D-6B92E72E19EF}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Balfe" refreshedDate="45352.922182523151" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="86" xr:uid="{7249213A-C349-314B-B63D-6B92E72E19EF}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D87" sheet="Results"/>
   </cacheSource>
@@ -10053,7 +2825,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="25"/>
     </cacheField>
     <cacheField name="Name" numFmtId="0">
-      <sharedItems count="44">
+      <sharedItems count="45">
         <s v="Alex Du Marquez"/>
         <s v="David Carroll"/>
         <s v="John Touhy"/>
@@ -10080,7 +2852,7 @@
         <s v="Sean O'Malley"/>
         <s v="Sean Conneally"/>
         <s v="Gavin Curran"/>
-        <s v="Conor O'Loughlin"/>
+        <s v="Conor Galvin"/>
         <s v="Cormac Long"/>
         <s v="Michael Ferreira"/>
         <s v="Alejandro Cavallo"/>
@@ -10097,6 +2869,7 @@
         <s v="Siobhán Nugent"/>
         <s v="Heather Browning"/>
         <s v="Pierce Geoghegan"/>
+        <s v="Conor O'Loughlin"/>
         <s v="Anthony NcMahon"/>
       </sharedItems>
     </cacheField>
@@ -10936,7 +3709,7 @@
     <x v="4"/>
     <n v="50"/>
     <n v="4"/>
-    <x v="26"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="4"/>
@@ -10948,7 +3721,7 @@
     <x v="4"/>
     <n v="50"/>
     <n v="6"/>
-    <x v="43"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="4"/>
@@ -11203,13 +3976,13 @@
     <dataField name="Sum of Points" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="34">
-    <format dxfId="944">
+    <format dxfId="153">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="943">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="942">
+    <format dxfId="151">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="23">
@@ -11240,7 +4013,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="941">
+    <format dxfId="150">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="23">
@@ -11271,7 +4044,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="940">
+    <format dxfId="149">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="13">
@@ -11292,7 +4065,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="939">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="13">
@@ -11313,89 +4086,89 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="938">
+    <format dxfId="147">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="937">
+    <format dxfId="146">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="936">
+    <format dxfId="145">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="935">
+    <format dxfId="144">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="934">
+    <format dxfId="143">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="933">
+    <format dxfId="142">
       <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="932">
+    <format dxfId="141">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="931">
+    <format dxfId="140">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="930">
+    <format dxfId="139">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="929">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="928">
+    <format dxfId="137">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="927">
+    <format dxfId="136">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="926">
+    <format dxfId="135">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="925">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="924">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="4">
@@ -11407,7 +4180,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="923">
+    <format dxfId="132">
       <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="3" count="4">
@@ -11419,7 +4192,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="922">
+    <format dxfId="131">
       <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="3" count="4">
@@ -11431,7 +4204,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="921">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11440,7 +4213,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="920">
+    <format dxfId="129">
       <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11449,21 +4222,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="919">
+    <format dxfId="128">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="918">
+    <format dxfId="127">
       <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="917">
+    <format dxfId="126">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="36">
@@ -11507,7 +4280,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="916">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11516,21 +4289,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="915">
+    <format dxfId="124">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="914">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="913">
+    <format dxfId="122">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11539,7 +4312,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="912">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11548,7 +4321,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="911">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -11569,8 +4342,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{285E13EC-C4CE-5645-A134-222BA3851AC5}" name="PivotTable1" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Athlete">
-  <location ref="B8:H54" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{285E13EC-C4CE-5645-A134-222BA3851AC5}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Athlete">
+  <location ref="B8:H55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
       <items count="6">
@@ -11585,7 +4358,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="45">
+      <items count="46">
         <item x="29"/>
         <item x="0"/>
         <item x="34"/>
@@ -11594,7 +4367,7 @@
         <item x="14"/>
         <item x="7"/>
         <item x="32"/>
-        <item x="26"/>
+        <item x="43"/>
         <item x="27"/>
         <item x="1"/>
         <item x="13"/>
@@ -11628,8 +4401,9 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item x="43"/>
+        <item x="44"/>
         <item x="2"/>
+        <item x="26"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -11646,7 +4420,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="46">
     <i>
       <x v="1"/>
     </i>
@@ -11670,9 +4444,6 @@
     </i>
     <i>
       <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i>
       <x v="9"/>
@@ -11711,22 +4482,28 @@
       <x v="35"/>
     </i>
     <i>
+      <x v="39"/>
+    </i>
+    <i>
       <x v="41"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="38"/>
     </i>
     <i>
-      <x v="42"/>
+      <x v="13"/>
     </i>
     <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="13"/>
+      <x v="44"/>
     </i>
     <i>
       <x v="3"/>
@@ -11810,23 +4587,23 @@
     <dataField name="Sum of Points" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="60">
-    <format dxfId="910">
+    <format dxfId="119">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="909">
+    <format dxfId="118">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="908">
+    <format dxfId="117">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="907">
+    <format dxfId="116">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="906">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -11849,7 +4626,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="905">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -11859,7 +4636,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="904">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -11882,7 +4659,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="903">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -11892,7 +4669,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="902">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -11915,7 +4692,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="901">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -11925,38 +4702,38 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="900">
+    <format dxfId="109">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="899">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="898">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="897">
+    <format dxfId="106">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="896">
+    <format dxfId="105">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="895">
+    <format dxfId="104">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="894">
+    <format dxfId="103">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="893">
+    <format dxfId="102">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="892">
+    <format dxfId="101">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="891">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -11979,7 +4756,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="890">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -11989,30 +4766,30 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="889">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="888">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="887">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="886">
+    <format dxfId="95">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="885">
+    <format dxfId="94">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="884">
+    <format dxfId="93">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -12024,7 +4801,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="883">
+    <format dxfId="92">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -12036,22 +4813,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="882">
+    <format dxfId="91">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="881">
+    <format dxfId="90">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="880">
+    <format dxfId="89">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="879">
+    <format dxfId="88">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="878">
+    <format dxfId="87">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="877">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -12074,7 +4851,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="876">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -12084,26 +4861,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="875">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="874">
+    <format dxfId="83">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="873">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="872">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="871">
+    <format dxfId="80">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="870">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -12126,7 +4903,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="869">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -12136,43 +4913,43 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="868">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="867">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="866">
+    <format dxfId="75">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="865">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="864">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="863">
+    <format dxfId="72">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="862">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="861">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="860">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="20">
@@ -12200,21 +4977,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="859">
+    <format dxfId="68">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="858">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="126">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -12226,7 +5003,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="125">
+    <format dxfId="65">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -12238,7 +5015,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="64">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -12250,7 +5027,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="123">
+    <format dxfId="63">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -12262,7 +5039,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="62">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -12274,7 +5051,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="121">
+    <format dxfId="61">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -12286,7 +5063,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="60">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -12646,16 +5423,16 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -13837,8 +6614,8 @@
   </sheetPr>
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H53" sqref="A1:H53"/>
+    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -13852,68 +6629,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" s="38"/>
       <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" s="38" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
       <c r="I4" s="38"/>
       <c r="J4" s="38"/>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
@@ -14216,11 +6993,11 @@
         <v>9</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="53">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="53">
         <v>50</v>
@@ -14228,7 +7005,7 @@
       <c r="F18" s="53"/>
       <c r="G18" s="54"/>
       <c r="H18" s="53">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
@@ -14240,11 +7017,11 @@
         <v>10</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="53">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="53">
         <v>50</v>
@@ -14252,7 +7029,7 @@
       <c r="F19" s="53"/>
       <c r="G19" s="54"/>
       <c r="H19" s="53">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
@@ -14264,11 +7041,11 @@
         <v>11</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="53">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="53">
         <v>50</v>
@@ -14276,7 +7053,7 @@
       <c r="F20" s="53"/>
       <c r="G20" s="54"/>
       <c r="H20" s="53">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
@@ -14288,11 +7065,11 @@
         <v>12</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="C21" s="53"/>
       <c r="D21" s="53">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" s="53">
         <v>50</v>
@@ -14300,7 +7077,7 @@
       <c r="F21" s="53"/>
       <c r="G21" s="54"/>
       <c r="H21" s="53">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
@@ -14312,19 +7089,19 @@
         <v>13</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53">
-        <v>39</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C22" s="53">
+        <v>37</v>
+      </c>
+      <c r="D22" s="53"/>
       <c r="E22" s="53">
         <v>50</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="54"/>
       <c r="H22" s="53">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
@@ -14336,19 +7113,19 @@
         <v>14</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="53">
-        <v>37</v>
-      </c>
-      <c r="D23" s="53"/>
+        <v>50</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53">
+        <v>32</v>
+      </c>
       <c r="E23" s="53">
         <v>50</v>
       </c>
       <c r="F23" s="53"/>
       <c r="G23" s="54"/>
       <c r="H23" s="53">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
@@ -14360,11 +7137,11 @@
         <v>15</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="C24" s="53"/>
       <c r="D24" s="53">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E24" s="53">
         <v>50</v>
@@ -14372,7 +7149,7 @@
       <c r="F24" s="53"/>
       <c r="G24" s="54"/>
       <c r="H24" s="53">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
@@ -14384,19 +7161,19 @@
         <v>16</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="53"/>
+        <v>196</v>
+      </c>
+      <c r="C25" s="53">
+        <v>38</v>
+      </c>
       <c r="D25" s="53">
-        <v>29</v>
-      </c>
-      <c r="E25" s="53">
-        <v>50</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E25" s="53"/>
       <c r="F25" s="53"/>
       <c r="G25" s="54"/>
       <c r="H25" s="53">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
@@ -14408,19 +7185,19 @@
         <v>17</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="C26" s="53">
-        <v>38</v>
-      </c>
-      <c r="D26" s="53">
-        <v>39</v>
-      </c>
-      <c r="E26" s="53"/>
+        <v>26</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53">
+        <v>50</v>
+      </c>
       <c r="F26" s="53"/>
       <c r="G26" s="54"/>
       <c r="H26" s="53">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
@@ -14432,10 +7209,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="C27" s="53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="53"/>
       <c r="E27" s="53">
@@ -14444,7 +7221,7 @@
       <c r="F27" s="53"/>
       <c r="G27" s="54"/>
       <c r="H27" s="53">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
@@ -14456,19 +7233,19 @@
         <v>19</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C28" s="53">
-        <v>25</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D28" s="53">
+        <v>40</v>
+      </c>
+      <c r="E28" s="53"/>
       <c r="F28" s="53"/>
       <c r="G28" s="54"/>
       <c r="H28" s="53">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
@@ -14480,19 +7257,19 @@
         <v>20</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="C29" s="53">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="53">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E29" s="53"/>
       <c r="F29" s="53"/>
       <c r="G29" s="54"/>
       <c r="H29" s="53">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
@@ -14504,19 +7281,17 @@
         <v>21</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="53">
-        <v>31</v>
-      </c>
-      <c r="D30" s="53">
-        <v>33</v>
-      </c>
-      <c r="E30" s="53"/>
+        <v>11</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53">
+        <v>50</v>
+      </c>
       <c r="F30" s="53"/>
       <c r="G30" s="54"/>
       <c r="H30" s="53">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
@@ -14548,7 +7323,7 @@
     <row r="32" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="53"/>
       <c r="B32" s="52" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
@@ -14588,7 +7363,7 @@
     <row r="34" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="53"/>
       <c r="B34" s="52" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -14608,7 +7383,7 @@
     <row r="35" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="53"/>
       <c r="B35" s="52" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -14650,12 +7425,12 @@
         <v>28</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="53">
+        <v>102</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53">
         <v>45</v>
       </c>
-      <c r="D37" s="53"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
       <c r="G37" s="54"/>
@@ -14672,17 +7447,17 @@
         <v>29</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C38" s="53">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="53"/>
       <c r="E38" s="53"/>
       <c r="F38" s="53"/>
       <c r="G38" s="54"/>
       <c r="H38" s="53">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I38" s="38"/>
       <c r="J38" s="38"/>
@@ -14694,17 +7469,17 @@
         <v>30</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53">
-        <v>43</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C39" s="53">
+        <v>44</v>
+      </c>
+      <c r="D39" s="53"/>
       <c r="E39" s="53"/>
       <c r="F39" s="53"/>
       <c r="G39" s="54"/>
       <c r="H39" s="53">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
@@ -14716,17 +7491,17 @@
         <v>31</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="53">
-        <v>42</v>
-      </c>
-      <c r="D40" s="53"/>
+        <v>242</v>
+      </c>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53">
+        <v>43</v>
+      </c>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
-      <c r="G40" s="54"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="53">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
@@ -14738,17 +7513,17 @@
         <v>32</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="C41" s="53">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D41" s="53"/>
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
-      <c r="G41" s="54"/>
+      <c r="G41" s="53"/>
       <c r="H41" s="53">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
@@ -14760,17 +7535,17 @@
         <v>33</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C42" s="53">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D42" s="53"/>
       <c r="E42" s="53"/>
       <c r="F42" s="53"/>
-      <c r="G42" s="54"/>
+      <c r="G42" s="53"/>
       <c r="H42" s="53">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
@@ -14782,17 +7557,17 @@
         <v>34</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53">
-        <v>37</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C43" s="53">
+        <v>39</v>
+      </c>
+      <c r="D43" s="53"/>
       <c r="E43" s="53"/>
       <c r="F43" s="53"/>
-      <c r="G43" s="54"/>
+      <c r="G43" s="53"/>
       <c r="H43" s="53">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
@@ -14804,17 +7579,17 @@
         <v>35</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="53">
-        <v>36</v>
-      </c>
-      <c r="D44" s="53"/>
+        <v>257</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53">
+        <v>37</v>
+      </c>
       <c r="E44" s="53"/>
       <c r="F44" s="53"/>
-      <c r="G44" s="54"/>
+      <c r="G44" s="53"/>
       <c r="H44" s="53">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
@@ -14826,17 +7601,17 @@
         <v>36</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C45" s="53">
+        <v>36</v>
+      </c>
+      <c r="D45" s="53"/>
       <c r="E45" s="53"/>
       <c r="F45" s="53"/>
-      <c r="G45" s="54"/>
+      <c r="G45" s="53"/>
       <c r="H45" s="53">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I45" s="38"/>
       <c r="J45" s="38"/>
@@ -14848,17 +7623,17 @@
         <v>37</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C46" s="53"/>
       <c r="D46" s="53">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E46" s="53"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="54"/>
+      <c r="G46" s="53"/>
       <c r="H46" s="53">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
@@ -14870,17 +7645,17 @@
         <v>38</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="C47" s="53">
-        <v>33</v>
-      </c>
-      <c r="D47" s="53"/>
+        <v>267</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53">
+        <v>34</v>
+      </c>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
-      <c r="G47" s="54"/>
+      <c r="G47" s="53"/>
       <c r="H47" s="53">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
@@ -14890,15 +7665,15 @@
     <row r="48" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="53"/>
       <c r="B48" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53">
+        <v>206</v>
+      </c>
+      <c r="C48" s="53">
         <v>33</v>
       </c>
+      <c r="D48" s="53"/>
       <c r="E48" s="53"/>
       <c r="F48" s="53"/>
-      <c r="G48" s="54"/>
+      <c r="G48" s="53"/>
       <c r="H48" s="53">
         <v>33</v>
       </c>
@@ -14912,17 +7687,17 @@
         <v>40</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>90</v>
+        <v>269</v>
       </c>
       <c r="C49" s="53"/>
       <c r="D49" s="53">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E49" s="53"/>
       <c r="F49" s="53"/>
-      <c r="G49" s="54"/>
+      <c r="G49" s="53"/>
       <c r="H49" s="53">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
@@ -14934,17 +7709,17 @@
         <v>41</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="C50" s="53">
-        <v>29</v>
-      </c>
-      <c r="D50" s="53"/>
+        <v>90</v>
+      </c>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53">
+        <v>31</v>
+      </c>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
-      <c r="G50" s="54"/>
+      <c r="G50" s="53"/>
       <c r="H50" s="53">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
@@ -14956,17 +7731,17 @@
         <v>42</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="C51" s="53">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="53"/>
       <c r="E51" s="53"/>
       <c r="F51" s="53"/>
-      <c r="G51" s="54"/>
+      <c r="G51" s="53"/>
       <c r="H51" s="53">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
@@ -14978,17 +7753,17 @@
         <v>43</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C52" s="53">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
       <c r="F52" s="53"/>
-      <c r="G52" s="54"/>
+      <c r="G52" s="53"/>
       <c r="H52" s="53">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
@@ -15000,17 +7775,17 @@
         <v>44</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C53" s="53">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D53" s="53"/>
       <c r="E53" s="53"/>
       <c r="F53" s="53"/>
-      <c r="G53" s="54"/>
+      <c r="G53" s="53"/>
       <c r="H53" s="53">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="38"/>
@@ -15021,26 +7796,18 @@
       <c r="A54" s="49">
         <v>45</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="59">
-        <v>854</v>
-      </c>
-      <c r="D54" s="59">
-        <v>895</v>
-      </c>
-      <c r="E54" s="59">
-        <v>1150</v>
-      </c>
-      <c r="F54" s="59">
-        <v>70</v>
-      </c>
-      <c r="G54" s="59">
-        <v>0</v>
-      </c>
-      <c r="H54" s="59">
-        <v>2969</v>
+      <c r="B54" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="53">
+        <v>22</v>
+      </c>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53">
+        <v>22</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -15049,13 +7816,27 @@
       <c r="A55" s="49">
         <v>46</v>
       </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
+      <c r="B55" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="60">
+        <v>854</v>
+      </c>
+      <c r="D55" s="60">
+        <v>895</v>
+      </c>
+      <c r="E55" s="60">
+        <v>1150</v>
+      </c>
+      <c r="F55" s="60">
+        <v>70</v>
+      </c>
+      <c r="G55" s="60">
+        <v>0</v>
+      </c>
+      <c r="H55" s="60">
+        <v>2969</v>
+      </c>
       <c r="I55"/>
       <c r="J55"/>
     </row>
@@ -15333,8 +8114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAC750F-14C9-DC46-A1A7-6369D3175D3A}">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16136,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>237</v>

--- a/assets/results/winter-league-2023-2024/LVAC Winter League Table 2023-24.xlsx
+++ b/assets/results/winter-league-2023-2024/LVAC Winter League Table 2023-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbalfe/Library/Mobile Documents/com~apple~CloudDocs/GitHub/LiffeyValleyAC.github.io/assets/results/winter-league-2023-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liffeyvalleyac/Library/Mobile Documents/com~apple~CloudDocs/GitHub/LiffeyValleyAC.github.io/assets/results/winter-league-2023-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96593DE4-8F75-C141-8A68-0682005B85AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16252BF-17E6-2F42-91FA-1FD69AD50571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{00A86852-E2FD-9042-B166-F46FB76A8DC4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="36" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1244,7 +1244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1386,18 +1386,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1410,565 +1398,21 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="578">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="96">
     <dxf>
       <font>
         <b/>
@@ -1977,1142 +1421,6 @@
     <dxf>
       <font>
         <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -3143,2731 +1451,6 @@
           <bgColor rgb="FF3266FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -7967,13 +3550,13 @@
     <dataField name="Sum of Points" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="34">
-    <format dxfId="577">
+    <format dxfId="95">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="576">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="575">
+    <format dxfId="93">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="23">
@@ -8004,7 +3587,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="574">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="23">
@@ -8035,7 +3618,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="573">
+    <format dxfId="91">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="13">
@@ -8056,7 +3639,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="572">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="13">
@@ -8077,89 +3660,89 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="571">
+    <format dxfId="89">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="570">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="569">
+    <format dxfId="87">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="568">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="567">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="566">
+    <format dxfId="84">
       <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="565">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="564">
+    <format dxfId="82">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="563">
+    <format dxfId="81">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="562">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="561">
+    <format dxfId="79">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="560">
+    <format dxfId="78">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="559">
+    <format dxfId="77">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="558">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="557">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="4">
@@ -8171,7 +3754,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="556">
+    <format dxfId="74">
       <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="3" count="4">
@@ -8183,7 +3766,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="555">
+    <format dxfId="73">
       <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="3" count="4">
@@ -8195,7 +3778,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="554">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -8204,7 +3787,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="553">
+    <format dxfId="71">
       <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -8213,21 +3796,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="552">
+    <format dxfId="70">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="551">
+    <format dxfId="69">
       <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="550">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="36">
@@ -8271,7 +3854,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="549">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -8280,21 +3863,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="548">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="547">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="546">
+    <format dxfId="64">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -8303,7 +3886,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="545">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -8312,7 +3895,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="544">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -8333,7 +3916,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6CA7BD51-9480-CD47-9628-40B76DA0ABF5}" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Athlete">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6CA7BD51-9480-CD47-9628-40B76DA0ABF5}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Athlete">
   <location ref="B8:I58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -8598,23 +4181,23 @@
     <dataField name="Sum of Points" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="62">
-    <format dxfId="543">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="542">
+    <format dxfId="60">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="541">
+    <format dxfId="59">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="540">
+    <format dxfId="58">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="539">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -8637,7 +4220,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="538">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -8647,7 +4230,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="537">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -8670,7 +4253,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="536">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -8680,7 +4263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="535">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -8703,7 +4286,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="534">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -8713,38 +4296,38 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="533">
+    <format dxfId="51">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="532">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="531">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="530">
+    <format dxfId="48">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="529">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="528">
+    <format dxfId="46">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="527">
+    <format dxfId="45">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="526">
+    <format dxfId="44">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="525">
+    <format dxfId="43">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="524">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -8767,7 +4350,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="523">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -8777,30 +4360,30 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="522">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="521">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="520">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="519">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="518">
+    <format dxfId="36">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="517">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8812,7 +4395,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="516">
+    <format dxfId="34">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8824,22 +4407,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="515">
+    <format dxfId="33">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="514">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="513">
+    <format dxfId="31">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="512">
+    <format dxfId="30">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="511">
+    <format dxfId="29">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="510">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -8862,7 +4445,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="509">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -8872,26 +4455,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="508">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="507">
+    <format dxfId="25">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="506">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="505">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="504">
+    <format dxfId="22">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="503">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -8914,7 +4497,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="502">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -8924,43 +4507,43 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="501">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="500">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="499">
+    <format dxfId="17">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="498">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="497">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="496">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="495">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="494">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="493">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="20">
@@ -8988,21 +4571,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="492">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="491">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="490">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -9014,7 +4597,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="309">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -9035,35 +4618,35 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="192">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="191">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="190">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="189">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="188">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -9078,14 +4661,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="127">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="125">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -9440,16 +5023,16 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -10631,8 +6214,8 @@
   </sheetPr>
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -10646,45 +6229,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="38"/>
       <c r="K2" s="38"/>
       <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" s="38" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:12" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
@@ -10701,15 +6284,15 @@
       <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
@@ -10775,29 +6358,29 @@
       <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60">
+      <c r="A10" s="56">
         <v>1</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="56">
         <v>34</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="56">
         <v>33</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="56">
         <v>50</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="56">
         <v>44</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="56">
         <v>10</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60">
+      <c r="H10" s="55"/>
+      <c r="I10" s="56">
         <v>171</v>
       </c>
       <c r="J10" s="38"/>
@@ -10805,29 +6388,29 @@
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60">
+      <c r="A11" s="56">
         <v>2</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="56">
         <v>35</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="56">
         <v>24</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="56">
         <v>50</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="56">
         <v>34</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="56">
         <v>10</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60">
+      <c r="H11" s="55"/>
+      <c r="I11" s="56">
         <v>153</v>
       </c>
       <c r="J11" s="38"/>
@@ -10835,25 +6418,25 @@
       <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60">
+      <c r="A12" s="56">
         <v>3</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="56">
         <v>50</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60">
+      <c r="D12" s="56"/>
+      <c r="E12" s="56">
         <v>50</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="56">
         <v>45</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60">
+      <c r="G12" s="56"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56">
         <v>145</v>
       </c>
       <c r="J12" s="38"/>
@@ -10861,29 +6444,29 @@
       <c r="L12" s="38"/>
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60">
+      <c r="A13" s="56">
         <v>4</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="56">
         <v>28</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="56">
         <v>26</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="56">
         <v>50</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="56">
         <v>26</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="56">
         <v>10</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60">
+      <c r="H13" s="55"/>
+      <c r="I13" s="56">
         <v>140</v>
       </c>
       <c r="J13" s="38"/>
@@ -10891,25 +6474,25 @@
       <c r="L13" s="38"/>
     </row>
     <row r="14" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60">
+      <c r="A14" s="56">
         <v>5</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56">
         <v>41</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="56">
         <v>50</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="56">
         <v>43</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60">
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56">
         <v>134</v>
       </c>
       <c r="J14" s="38"/>
@@ -10917,25 +6500,25 @@
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60">
+      <c r="A15" s="56">
         <v>6</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="56">
         <v>43</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="56">
         <v>40</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="56">
         <v>50</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60">
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56">
         <v>133</v>
       </c>
       <c r="J15" s="38"/>
@@ -10943,25 +6526,25 @@
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60">
+      <c r="A16" s="56">
         <v>7</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60">
+      <c r="C16" s="56"/>
+      <c r="D16" s="56">
         <v>44</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="56">
         <v>50</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="56">
         <v>35</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60">
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56">
         <v>129</v>
       </c>
       <c r="J16" s="38"/>
@@ -10969,25 +6552,25 @@
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60">
+      <c r="A17" s="56">
         <v>8</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="56">
         <v>45</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60">
+      <c r="D17" s="56"/>
+      <c r="E17" s="56">
         <v>50</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="56">
         <v>32</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60">
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56">
         <v>127</v>
       </c>
       <c r="J17" s="38"/>
@@ -10995,25 +6578,25 @@
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60">
+      <c r="A18" s="56">
         <v>9</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56">
         <v>38</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="56">
         <v>50</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="56">
         <v>38</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60">
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56">
         <v>126</v>
       </c>
       <c r="J18" s="38"/>
@@ -11021,25 +6604,25 @@
       <c r="L18" s="38"/>
     </row>
     <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60">
+      <c r="A19" s="56">
         <v>10</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="56">
         <v>40</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="56">
         <v>32</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="56">
         <v>50</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60">
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56">
         <v>122</v>
       </c>
       <c r="J19" s="38"/>
@@ -11047,25 +6630,25 @@
       <c r="L19" s="38"/>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60">
+      <c r="A20" s="56">
         <v>11</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="56">
         <v>30</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="56">
         <v>35</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="56">
         <v>50</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60">
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56">
         <v>115</v>
       </c>
       <c r="J20" s="38"/>
@@ -11073,25 +6656,25 @@
       <c r="L20" s="38"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60">
+      <c r="A21" s="56">
         <v>12</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60">
+      <c r="C21" s="56"/>
+      <c r="D21" s="56">
         <v>27</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="56">
         <v>50</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="56">
         <v>33</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60">
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56">
         <v>110</v>
       </c>
       <c r="J21" s="38"/>
@@ -11099,25 +6682,25 @@
       <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60">
+      <c r="A22" s="56">
         <v>13</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="56">
         <v>23</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="56">
         <v>36</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="56">
         <v>50</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60">
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56">
         <v>109</v>
       </c>
       <c r="J22" s="38"/>
@@ -11125,25 +6708,25 @@
       <c r="L22" s="38"/>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60">
+      <c r="A23" s="56">
         <v>14</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56">
         <v>23</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="56">
         <v>50</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="56">
         <v>27</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60">
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56">
         <v>100</v>
       </c>
       <c r="J23" s="38"/>
@@ -11151,23 +6734,23 @@
       <c r="L23" s="38"/>
     </row>
     <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60">
+      <c r="A24" s="56">
         <v>15</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60">
+      <c r="C24" s="56"/>
+      <c r="D24" s="56">
         <v>42</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="56">
         <v>50</v>
       </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60">
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56">
         <v>92</v>
       </c>
       <c r="J24" s="38"/>
@@ -11175,23 +6758,23 @@
       <c r="L24" s="38"/>
     </row>
     <row r="25" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60">
+      <c r="A25" s="56">
         <v>16</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60">
+      <c r="C25" s="56"/>
+      <c r="D25" s="56">
         <v>45</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60">
+      <c r="E25" s="56"/>
+      <c r="F25" s="56">
         <v>42</v>
       </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60">
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56">
         <v>87</v>
       </c>
       <c r="J25" s="38"/>
@@ -11199,21 +6782,21 @@
       <c r="L25" s="38"/>
     </row>
     <row r="26" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
-      <c r="B26" s="61" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="56">
         <v>37</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56">
         <v>50</v>
       </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60">
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56">
         <v>87</v>
       </c>
       <c r="J26" s="38"/>
@@ -11221,23 +6804,23 @@
       <c r="L26" s="38"/>
     </row>
     <row r="27" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60">
+      <c r="A27" s="56">
         <v>18</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60">
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56">
         <v>50</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="56">
         <v>36</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60">
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56">
         <v>86</v>
       </c>
       <c r="J27" s="38"/>
@@ -11245,21 +6828,21 @@
       <c r="L27" s="38"/>
     </row>
     <row r="28" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
-      <c r="B28" s="61" t="s">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="60">
+      <c r="C28" s="56">
         <v>36</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60">
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56">
         <v>50</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60">
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56">
         <v>86</v>
       </c>
       <c r="J28" s="38"/>
@@ -11267,23 +6850,23 @@
       <c r="L28" s="38"/>
     </row>
     <row r="29" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60">
+      <c r="A29" s="56">
         <v>20</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="56">
         <v>44</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60">
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56">
         <v>41</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60">
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56">
         <v>85</v>
       </c>
       <c r="J29" s="38"/>
@@ -11291,23 +6874,23 @@
       <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="60">
+      <c r="A30" s="56">
         <v>21</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60">
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56">
         <v>50</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="56">
         <v>31</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60">
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56">
         <v>81</v>
       </c>
       <c r="J30" s="38"/>
@@ -11315,23 +6898,23 @@
       <c r="L30" s="38"/>
     </row>
     <row r="31" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60">
+      <c r="A31" s="56">
         <v>22</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="60">
+      <c r="C31" s="56">
         <v>26</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60">
+      <c r="D31" s="56"/>
+      <c r="E31" s="56">
         <v>50</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60">
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56">
         <v>76</v>
       </c>
       <c r="J31" s="38"/>
@@ -11339,23 +6922,23 @@
       <c r="L31" s="38"/>
     </row>
     <row r="32" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="60">
+      <c r="A32" s="56">
         <v>23</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="56">
         <v>25</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60">
+      <c r="D32" s="56"/>
+      <c r="E32" s="56">
         <v>50</v>
       </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60">
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56">
         <v>75</v>
       </c>
       <c r="J32" s="38"/>
@@ -11363,23 +6946,23 @@
       <c r="L32" s="38"/>
     </row>
     <row r="33" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60">
+      <c r="A33" s="56">
         <v>24</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="56">
         <v>38</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="56">
         <v>37</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60">
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56">
         <v>75</v>
       </c>
       <c r="J33" s="38"/>
@@ -11387,23 +6970,23 @@
       <c r="L33" s="38"/>
     </row>
     <row r="34" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60">
+      <c r="A34" s="56">
         <v>25</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="56">
         <v>32</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="56">
         <v>39</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60">
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56">
         <v>71</v>
       </c>
       <c r="J34" s="38"/>
@@ -11411,23 +6994,23 @@
       <c r="L34" s="38"/>
     </row>
     <row r="35" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="60">
+      <c r="A35" s="56">
         <v>26</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60">
+      <c r="C35" s="56"/>
+      <c r="D35" s="56">
         <v>31</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60">
+      <c r="E35" s="56"/>
+      <c r="F35" s="56">
         <v>39</v>
       </c>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60">
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56">
         <v>70</v>
       </c>
       <c r="J35" s="38"/>
@@ -11435,23 +7018,23 @@
       <c r="L35" s="38"/>
     </row>
     <row r="36" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="60">
+      <c r="A36" s="56">
         <v>27</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60">
+      <c r="C36" s="56"/>
+      <c r="D36" s="56">
         <v>30</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60">
+      <c r="E36" s="56"/>
+      <c r="F36" s="56">
         <v>37</v>
       </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60">
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56">
         <v>67</v>
       </c>
       <c r="J36" s="38"/>
@@ -11459,23 +7042,23 @@
       <c r="L36" s="38"/>
     </row>
     <row r="37" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="60">
+      <c r="A37" s="56">
         <v>28</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="60">
+      <c r="C37" s="56">
         <v>31</v>
       </c>
-      <c r="D37" s="60">
+      <c r="D37" s="56">
         <v>29</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60">
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56">
         <v>60</v>
       </c>
       <c r="J37" s="38"/>
@@ -11483,21 +7066,21 @@
       <c r="L37" s="38"/>
     </row>
     <row r="38" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="60">
+      <c r="A38" s="56">
         <v>29</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60">
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56">
         <v>50</v>
       </c>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60">
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56">
         <v>50</v>
       </c>
       <c r="J38" s="38"/>
@@ -11505,19 +7088,19 @@
       <c r="L38" s="38"/>
     </row>
     <row r="39" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
-      <c r="B39" s="61" t="s">
+      <c r="A39" s="56"/>
+      <c r="B39" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60">
+      <c r="C39" s="56"/>
+      <c r="D39" s="56">
         <v>50</v>
       </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60">
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56">
         <v>50</v>
       </c>
       <c r="J39" s="38"/>
@@ -11525,19 +7108,19 @@
       <c r="L39" s="38"/>
     </row>
     <row r="40" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="56"/>
+      <c r="B40" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60">
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56">
         <v>50</v>
       </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60">
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56">
         <v>50</v>
       </c>
       <c r="J40" s="38"/>
@@ -11545,19 +7128,19 @@
       <c r="L40" s="38"/>
     </row>
     <row r="41" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
-      <c r="B41" s="62" t="s">
+      <c r="A41" s="56"/>
+      <c r="B41" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60">
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56">
         <v>50</v>
       </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60">
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56">
         <v>50</v>
       </c>
       <c r="J41" s="38"/>
@@ -11565,21 +7148,21 @@
       <c r="L41" s="38"/>
     </row>
     <row r="42" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="60">
+      <c r="A42" s="56">
         <v>33</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60">
+      <c r="C42" s="56"/>
+      <c r="D42" s="56">
         <v>43</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60">
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56">
         <v>43</v>
       </c>
       <c r="J42" s="38"/>
@@ -11587,21 +7170,21 @@
       <c r="L42" s="38"/>
     </row>
     <row r="43" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="60">
+      <c r="A43" s="56">
         <v>34</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="60">
+      <c r="C43" s="56">
         <v>42</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60">
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56">
         <v>42</v>
       </c>
       <c r="J43" s="38"/>
@@ -11609,21 +7192,21 @@
       <c r="L43" s="38"/>
     </row>
     <row r="44" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="60">
+      <c r="A44" s="56">
         <v>35</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="60">
+      <c r="C44" s="56">
         <v>41</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60">
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56">
         <v>41</v>
       </c>
       <c r="J44" s="38"/>
@@ -11631,21 +7214,21 @@
       <c r="L44" s="38"/>
     </row>
     <row r="45" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="60">
+      <c r="A45" s="56">
         <v>36</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60">
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56">
         <v>40</v>
       </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60">
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56">
         <v>40</v>
       </c>
       <c r="J45" s="38"/>
@@ -11653,21 +7236,21 @@
       <c r="L45" s="38"/>
     </row>
     <row r="46" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="60">
+      <c r="A46" s="56">
         <v>37</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="60">
+      <c r="C46" s="56">
         <v>39</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60">
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56">
         <v>39</v>
       </c>
       <c r="J46" s="38"/>
@@ -11675,21 +7258,21 @@
       <c r="L46" s="38"/>
     </row>
     <row r="47" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="60">
+      <c r="A47" s="56">
         <v>38</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60">
+      <c r="C47" s="56"/>
+      <c r="D47" s="56">
         <v>34</v>
       </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60">
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56">
         <v>34</v>
       </c>
       <c r="J47" s="38"/>
@@ -11697,21 +7280,21 @@
       <c r="L47" s="38"/>
     </row>
     <row r="48" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="60">
+      <c r="A48" s="56">
         <v>39</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="C48" s="60">
+      <c r="C48" s="56">
         <v>33</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60">
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56">
         <v>33</v>
       </c>
       <c r="J48" s="38"/>
@@ -11719,21 +7302,21 @@
       <c r="L48" s="38"/>
     </row>
     <row r="49" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="60">
+      <c r="A49" s="56">
         <v>40</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60">
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56">
         <v>30</v>
       </c>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60">
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56">
         <v>30</v>
       </c>
       <c r="J49" s="38"/>
@@ -11741,21 +7324,21 @@
       <c r="L49" s="38"/>
     </row>
     <row r="50" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="60">
+      <c r="A50" s="56">
         <v>41</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="60">
+      <c r="C50" s="56">
         <v>29</v>
       </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60">
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56">
         <v>29</v>
       </c>
       <c r="J50" s="38"/>
@@ -11763,19 +7346,19 @@
       <c r="L50" s="38"/>
     </row>
     <row r="51" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="60"/>
-      <c r="B51" s="62" t="s">
+      <c r="A51" s="56"/>
+      <c r="B51" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60">
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56">
         <v>29</v>
       </c>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60">
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56">
         <v>29</v>
       </c>
       <c r="J51" s="38"/>
@@ -11783,21 +7366,21 @@
       <c r="L51" s="38"/>
     </row>
     <row r="52" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="60">
+      <c r="A52" s="56">
         <v>43</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60">
+      <c r="C52" s="56"/>
+      <c r="D52" s="56">
         <v>28</v>
       </c>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60">
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56">
         <v>28</v>
       </c>
       <c r="J52" s="38"/>
@@ -11805,19 +7388,19 @@
       <c r="L52" s="38"/>
     </row>
     <row r="53" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="60"/>
-      <c r="B53" s="62" t="s">
+      <c r="A53" s="56"/>
+      <c r="B53" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60">
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56">
         <v>28</v>
       </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60">
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56">
         <v>28</v>
       </c>
       <c r="J53" s="38"/>
@@ -11825,21 +7408,21 @@
       <c r="L53" s="38"/>
     </row>
     <row r="54" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="60">
+      <c r="A54" s="56">
         <v>45</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="C54" s="60">
+      <c r="C54" s="56">
         <v>27</v>
       </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60">
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56">
         <v>27</v>
       </c>
       <c r="J54" s="38"/>
@@ -11847,21 +7430,21 @@
       <c r="L54" s="38"/>
     </row>
     <row r="55" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="60">
+      <c r="A55" s="56">
         <v>46</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60">
+      <c r="C55" s="56"/>
+      <c r="D55" s="56">
         <v>25</v>
       </c>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60">
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56">
         <v>25</v>
       </c>
       <c r="J55" s="38"/>
@@ -11869,21 +7452,21 @@
       <c r="L55" s="38"/>
     </row>
     <row r="56" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="60">
+      <c r="A56" s="56">
         <v>47</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="60">
+      <c r="C56" s="56">
         <v>24</v>
       </c>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60">
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56">
         <v>24</v>
       </c>
       <c r="J56" s="38"/>
@@ -11891,21 +7474,21 @@
       <c r="L56" s="38"/>
     </row>
     <row r="57" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="60">
+      <c r="A57" s="56">
         <v>48</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="60">
+      <c r="C57" s="56">
         <v>22</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60">
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56">
         <v>22</v>
       </c>
       <c r="J57" s="38"/>
@@ -11919,23 +7502,23 @@
       <c r="B58" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="58">
+      <c r="C58" s="42">
         <v>854</v>
       </c>
-      <c r="D58" s="58">
+      <c r="D58" s="42">
         <v>832</v>
       </c>
-      <c r="E58" s="58">
+      <c r="E58" s="42">
         <v>1150</v>
       </c>
-      <c r="F58" s="58">
+      <c r="F58" s="42">
         <v>760</v>
       </c>
-      <c r="G58" s="58">
+      <c r="G58" s="42">
         <v>30</v>
       </c>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58">
+      <c r="H58" s="42"/>
+      <c r="I58" s="42">
         <v>3626</v>
       </c>
       <c r="J58" s="38"/>

--- a/assets/results/winter-league-2023-2024/LVAC Winter League Table 2023-24.xlsx
+++ b/assets/results/winter-league-2023-2024/LVAC Winter League Table 2023-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liffeyvalleyac/Library/Mobile Documents/com~apple~CloudDocs/GitHub/LiffeyValleyAC.github.io/assets/results/winter-league-2023-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB0F82B-3CA8-2C43-977A-8476F4E500C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E265FB71-43FF-764F-AD01-E8B0A38F69CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00A86852-E2FD-9042-B166-F46FB76A8DC4}"/>
   </bookViews>
@@ -18,11 +18,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Results!$A$1:$G$134</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Table!$A$3:$I$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Table!$A$1:$J$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId3"/>
+    <pivotCache cacheId="38" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="328">
   <si>
     <t>Athlete</t>
   </si>
@@ -1025,6 +1025,9 @@
   </si>
   <si>
     <t>(blank)</t>
+  </si>
+  <si>
+    <t>Christine Roche (Guest)</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1239,15 +1242,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1257,626 +1251,17 @@
     <xf numFmtId="1" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="148">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -3683,7 +3068,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16B5FED7-9C72-BA4D-89D7-D5B12E968CFB}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Athlete">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16B5FED7-9C72-BA4D-89D7-D5B12E968CFB}" name="PivotTable1" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Athlete">
   <location ref="B8:J69" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
@@ -3996,23 +3381,23 @@
     <dataField name="Sum of Points" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="74">
-    <format dxfId="147">
+    <format dxfId="73">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="146">
+    <format dxfId="72">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="71">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="70">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="143">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4035,7 +3420,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="142">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -4045,7 +3430,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="141">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4068,7 +3453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="140">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -4078,7 +3463,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="139">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4101,7 +3486,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="138">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -4111,38 +3496,38 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="137">
+    <format dxfId="63">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="136">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="135">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="60">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="58">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="57">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="130">
+    <format dxfId="56">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="129">
+    <format dxfId="55">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4165,7 +3550,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="127">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -4175,30 +3560,30 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="126">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="125">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="49">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="121">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -4210,7 +3595,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -4222,10 +3607,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="45">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4248,7 +3633,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -4258,23 +3643,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="42">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="39">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4297,7 +3682,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="111">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -4307,43 +3692,43 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="109">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="34">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="31">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="18">
@@ -4369,21 +3754,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -4395,7 +3780,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -4416,35 +3801,35 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -4459,48 +3844,48 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="16">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="15">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="11">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="10">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="9">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="8">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -4558,7 +3943,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="10">
@@ -4576,30 +3961,30 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="2">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4917,8 +4302,8 @@
   </sheetPr>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J67" sqref="A1:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4931,42 +4316,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
@@ -4979,16 +4364,16 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5"/>
@@ -5007,34 +4392,34 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="40" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="19" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5099,7 +4484,7 @@
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <f t="shared" ref="A12:A68" si="0">A11+1</f>
+        <f t="shared" ref="A12:A67" si="0">A11+1</f>
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -5596,6 +4981,7 @@
     </row>
     <row r="31" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -5661,9 +5047,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
-        <v>25</v>
-      </c>
+      <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
         <v>91</v>
       </c>
@@ -5683,7 +5067,9 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14">
+        <v>26</v>
+      </c>
       <c r="B35" s="15" t="s">
         <v>11</v>
       </c>
@@ -5705,7 +5091,7 @@
     <row r="36" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>70</v>
@@ -5726,7 +5112,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="B37" s="15" t="s">
         <v>166</v>
       </c>
@@ -5747,6 +5136,7 @@
     </row>
     <row r="38" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -5898,7 +5288,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="B45" s="16" t="s">
         <v>245</v>
       </c>
@@ -5917,6 +5310,7 @@
     </row>
     <row r="46" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -5938,7 +5332,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="B47" s="16" t="s">
         <v>251</v>
       </c>
@@ -6121,7 +5518,7 @@
     </row>
     <row r="56" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
-        <f>A55+1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -6183,7 +5580,10 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="B59" s="16" t="s">
         <v>9</v>
       </c>
@@ -6202,6 +5602,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -6365,7 +5766,7 @@
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A12:A68" si="1">A67+1</f>
         <v>59</v>
       </c>
       <c r="B68" s="16" t="s">
@@ -6380,33 +5781,33 @@
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="6">
         <v>854</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="6">
         <v>832</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="6">
         <v>1150</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="6">
         <v>760</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="6">
         <v>994</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="6">
         <v>30</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I69" s="6">
         <v>-75</v>
       </c>
-      <c r="J69" s="18">
+      <c r="J69" s="6">
         <v>4545</v>
       </c>
     </row>
@@ -6501,30 +5902,10 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-    </row>
+    <row r="81" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J2"/>
@@ -6533,7 +5914,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="48" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6541,8 +5922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAC750F-14C9-DC46-A1A7-6369D3175D3A}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9069,6 +8450,9 @@
       <c r="C116" s="1">
         <v>16</v>
       </c>
+      <c r="D116" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="E116" s="1" t="s">
         <v>281</v>
       </c>

--- a/assets/results/winter-league-2023-2024/LVAC Winter League Table 2023-24.xlsx
+++ b/assets/results/winter-league-2023-2024/LVAC Winter League Table 2023-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liffeyvalleyac/Library/Mobile Documents/com~apple~CloudDocs/GitHub/LiffeyValleyAC.github.io/assets/results/winter-league-2023-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E265FB71-43FF-764F-AD01-E8B0A38F69CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE16CEA9-DE54-D047-9BEC-B90BBD1C5DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00A86852-E2FD-9042-B166-F46FB76A8DC4}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="38" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="322">
   <si>
     <t>Athlete</t>
   </si>
@@ -100,21 +100,6 @@
     <t>Keith Lunders</t>
   </si>
   <si>
-    <t>Rules:</t>
-  </si>
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#4</t>
-  </si>
-  <si>
     <t>Place</t>
   </si>
   <si>
@@ -1021,20 +1006,17 @@
     <t>13m 05s</t>
   </si>
   <si>
-    <t>Final Rank</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
     <t>Christine Roche (Guest)</t>
+  </si>
+  <si>
+    <t>Lowest Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1065,13 +1047,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1086,21 +1061,29 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1108,7 +1091,30 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
       <color indexed="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1202,7 +1208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1212,143 +1218,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
+  <dxfs count="269">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1356,27 +1288,8 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
+        <color rgb="FFFFC000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1385,8 +1298,57 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <border>
@@ -1433,6 +1395,196 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color indexed="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color indexed="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color indexed="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <color rgb="FFFFFFFF"/>
@@ -1447,27 +1599,43 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
       </font>
     </dxf>
     <dxf>
@@ -1582,43 +1750,27 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+        <sz val="13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
     </dxf>
     <dxf>
       <font>
@@ -1633,174 +1785,6 @@
         </patternFill>
       </fill>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <border>
@@ -1847,6 +1831,291 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3266FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3266FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -1869,6 +2138,1221 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color indexed="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color indexed="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color indexed="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3266FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3266FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3266FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3266FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color indexed="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color indexed="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color indexed="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -1896,7 +3380,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="liffeyvalleyac" refreshedDate="45390.834136226855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="133" xr:uid="{1FEC08E5-A40F-424C-BAB5-5F69D4A608BB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="liffeyvalleyac" refreshedDate="45392.949934374999" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="133" xr:uid="{1FEC08E5-A40F-424C-BAB5-5F69D4A608BB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F134" sheet="Results"/>
   </cacheSource>
@@ -1972,14 +3456,14 @@
         <s v="Shauna Dunne"/>
         <s v="Paul Balfe"/>
         <s v="Lauren Sullivan"/>
-        <m/>
+        <s v="Christine Roche (Guest)"/>
         <s v="Ciara Broderick Farrell"/>
         <s v="Conor Doyle"/>
         <s v="Ellen Cronin"/>
         <s v="Colin G"/>
         <s v="James Foley"/>
         <s v="Neil Duffy"/>
-        <s v="Christine Roche (Guest)" u="1"/>
+        <m u="1"/>
         <s v="Oisin Murphy" u="1"/>
       </sharedItems>
     </cacheField>
@@ -2018,7 +3502,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="-19"/>
+    <n v="-20"/>
     <m/>
     <x v="2"/>
     <m/>
@@ -3068,7 +4552,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16B5FED7-9C72-BA4D-89D7-D5B12E968CFB}" name="PivotTable1" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Athlete">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16B5FED7-9C72-BA4D-89D7-D5B12E968CFB}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Athlete">
   <location ref="B8:J69" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
@@ -3079,7 +4563,7 @@
         <item x="5"/>
         <item x="6"/>
         <item x="1"/>
-        <item x="0"/>
+        <item n="Lowest Score" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3140,14 +4624,14 @@
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
-        <item m="1" x="59"/>
+        <item x="52"/>
         <item x="53"/>
         <item x="54"/>
         <item x="55"/>
         <item x="56"/>
         <item x="57"/>
         <item x="58"/>
-        <item x="52"/>
+        <item m="1" x="59"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -3342,7 +4826,7 @@
       <x v="59"/>
     </i>
     <i>
-      <x v="60"/>
+      <x v="53"/>
     </i>
     <i t="grand">
       <x/>
@@ -3380,24 +4864,24 @@
   <dataFields count="1">
     <dataField name="Sum of Points" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="74">
-    <format dxfId="73">
+  <formats count="86">
+    <format dxfId="268">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="267">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="266">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="265">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="264">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -3420,7 +4904,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="263">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -3430,7 +4914,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="262">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -3453,7 +4937,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="261">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -3463,7 +4947,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="260">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -3486,7 +4970,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="259">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -3496,38 +4980,38 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="258">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="257">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="256">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="255">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="254">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="253">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="252">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="251">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="250">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="249">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -3550,7 +5034,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="248">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -3560,30 +5044,30 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="247">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="246">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="245">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="244">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="243">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="242">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -3595,7 +5079,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="241">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -3607,10 +5091,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="240">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="239">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -3633,7 +5117,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="238">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -3643,23 +5127,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="237">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="236">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="235">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="234">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="233">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -3682,7 +5166,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="232">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -3692,43 +5176,43 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="231">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="230">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="229">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="228">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="227">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="226">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="225">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="224">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="223">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="18">
@@ -3754,21 +5238,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="222">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="221">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="220">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -3780,7 +5264,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="219">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -3801,35 +5285,35 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="218">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="217">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="216">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="215">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="214">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -3844,48 +5328,39 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="213">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="212">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="211">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="210">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="209">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="208">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="207">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
+    <format dxfId="206">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="205">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -3943,7 +5418,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="204">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="10">
@@ -3961,31 +5436,265 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="203">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="202">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="201">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="200">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="199">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="198">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="115">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="58">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+            <x v="21"/>
+            <x v="22"/>
+            <x v="23"/>
+            <x v="24"/>
+            <x v="26"/>
+            <x v="27"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="30"/>
+            <x v="31"/>
+            <x v="32"/>
+            <x v="33"/>
+            <x v="34"/>
+            <x v="35"/>
+            <x v="36"/>
+            <x v="37"/>
+            <x v="38"/>
+            <x v="39"/>
+            <x v="40"/>
+            <x v="41"/>
+            <x v="42"/>
+            <x v="43"/>
+            <x v="44"/>
+            <x v="45"/>
+            <x v="46"/>
+            <x v="47"/>
+            <x v="48"/>
+            <x v="49"/>
+            <x v="50"/>
+            <x v="51"/>
+            <x v="52"/>
+            <x v="54"/>
+            <x v="55"/>
+            <x v="56"/>
+            <x v="57"/>
+            <x v="58"/>
+            <x v="59"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="114">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="112">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="110">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="108">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="107">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="50">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="20"/>
+            <x v="21"/>
+            <x v="22"/>
+            <x v="23"/>
+            <x v="24"/>
+            <x v="26"/>
+            <x v="27"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="30"/>
+            <x v="32"/>
+            <x v="33"/>
+            <x v="34"/>
+            <x v="35"/>
+            <x v="36"/>
+            <x v="37"/>
+            <x v="38"/>
+            <x v="39"/>
+            <x v="40"/>
+            <x v="41"/>
+            <x v="42"/>
+            <x v="43"/>
+            <x v="44"/>
+            <x v="45"/>
+            <x v="47"/>
+            <x v="48"/>
+            <x v="49"/>
+            <x v="50"/>
+            <x v="51"/>
+            <x v="52"/>
+            <x v="54"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="106">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="8">
+            <x v="19"/>
+            <x v="31"/>
+            <x v="46"/>
+            <x v="55"/>
+            <x v="56"/>
+            <x v="57"/>
+            <x v="58"/>
+            <x v="59"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="105">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="104">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="40"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="40"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -4300,1612 +6009,1567 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J67" sqref="A1:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="5" customWidth="1"/>
-    <col min="3" max="6" width="15.83203125" style="6" customWidth="1"/>
-    <col min="7" max="10" width="15.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="5" customWidth="1"/>
+    <col min="3" max="6" width="20.83203125" style="6" customWidth="1"/>
+    <col min="7" max="10" width="20.83203125" style="5" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="40" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>87</v>
+      <c r="H9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="16">
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="14">
+        <v>138</v>
+      </c>
+      <c r="C10" s="16">
         <v>43</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="16">
         <v>40</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="16">
         <v>50</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
         <v>42</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="16">
         <f>A10+1</f>
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="16">
         <v>34</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="16">
         <v>33</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="16">
         <v>50</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="16">
         <v>44</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="25">
         <v>32</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="16">
         <v>10</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="25">
         <v>-32</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="16">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="16">
         <f t="shared" ref="A12:A67" si="0">A11+1</f>
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14">
+        <v>191</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16">
         <v>44</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="16">
         <v>50</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="16">
         <v>35</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="16">
         <v>37</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16">
         <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="14">
+        <v>154</v>
+      </c>
+      <c r="C13" s="16">
         <v>35</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="25">
         <v>24</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="16">
         <v>50</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="16">
         <v>34</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="16">
         <v>34</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="16">
         <v>10</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="25">
         <v>-24</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="16">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14">
+        <v>25</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16">
         <v>38</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="16">
         <v>50</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="16">
         <v>38</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="16">
         <v>23</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16">
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="16">
         <v>45</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16">
         <v>50</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="16">
         <v>32</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="16">
         <v>21</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="14">
+        <v>58</v>
+      </c>
+      <c r="C16" s="16">
         <v>50</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16">
         <v>50</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="16">
         <v>45</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="16">
         <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="16">
         <v>30</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="16">
         <v>35</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="16">
         <v>50</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
         <v>29</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16">
         <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="14">
+        <v>60</v>
+      </c>
+      <c r="C18" s="16">
         <v>28</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="16">
         <v>26</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="16">
         <v>50</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="16">
         <v>26</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="25">
         <v>20</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="16">
         <v>10</v>
       </c>
-      <c r="I18" s="13">
-        <v>-19</v>
-      </c>
-      <c r="J18" s="14">
-        <v>141</v>
+      <c r="I18" s="25">
+        <v>-20</v>
+      </c>
+      <c r="J18" s="16">
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="16">
         <v>23</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="16">
         <v>36</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="16">
         <v>50</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16">
         <v>28</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16">
         <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14">
+        <v>199</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16">
         <v>41</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="16">
         <v>50</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="16">
         <v>43</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14">
+        <v>197</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16">
         <v>42</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="16">
         <v>50</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16">
         <v>40</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14">
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="16">
         <v>37</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16">
         <v>50</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16">
         <v>36</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14">
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16">
         <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="16">
         <v>40</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="16">
         <v>32</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="16">
         <v>50</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="B24" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="16">
         <v>44</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16">
         <v>41</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="16">
         <v>35</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14">
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="14">
+        <v>177</v>
+      </c>
+      <c r="C25" s="16">
         <v>25</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16">
         <v>50</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16">
         <v>44</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14">
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14">
+      <c r="B26" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16">
         <v>45</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16">
         <v>42</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="16">
         <v>26</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14">
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14">
+        <v>23</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16">
         <v>27</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="16">
         <v>50</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="16">
         <v>33</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16">
         <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="14">
+        <v>149</v>
+      </c>
+      <c r="C28" s="16">
         <v>38</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="16">
         <v>37</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16">
         <v>33</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16">
         <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16">
         <v>50</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="16">
         <v>31</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="16">
         <v>27</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14">
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16">
         <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="16">
         <v>21</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14">
+        <v>216</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16">
         <v>31</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16">
         <v>39</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="16">
         <v>31</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14">
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14">
+      <c r="B31" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16">
         <v>50</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16">
         <v>50</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14">
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14">
+        <v>85</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16">
         <v>23</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="16">
         <v>50</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="16">
         <v>27</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14">
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="16">
         <v>24</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="16">
         <v>36</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16">
         <v>50</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14">
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16">
         <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14">
+        <v>86</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16">
         <v>50</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="16">
         <v>36</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14">
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="16">
         <v>26</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="16">
         <v>26</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16">
         <v>50</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16">
         <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14">
+      <c r="B36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16">
         <v>50</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14">
+      <c r="F36" s="16"/>
+      <c r="G36" s="16">
         <v>22</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14">
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="14">
+        <v>161</v>
+      </c>
+      <c r="C37" s="16">
         <v>32</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="16">
         <v>39</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14">
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14">
+      <c r="B38" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16">
         <v>29</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="16">
         <v>39</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14">
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14">
+        <v>219</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16">
         <v>30</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14">
+      <c r="E39" s="16"/>
+      <c r="F39" s="16">
         <v>37</v>
       </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14">
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="16">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="16">
         <v>31</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="16">
         <v>29</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="16">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="14">
+        <v>133</v>
+      </c>
+      <c r="C41" s="16">
         <v>41</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16">
         <v>16</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14">
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="16">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14">
+        <v>186</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16">
         <v>50</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14">
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="16" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16">
         <v>50</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="16">
         <v>35</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14">
+      <c r="B44" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16">
         <v>28</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14">
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16">
         <v>18</v>
       </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14">
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="A45" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14">
+      <c r="B45" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16">
         <v>45</v>
       </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14">
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="16">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14">
+        <v>59</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16">
         <v>25</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14">
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16">
         <v>19</v>
       </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14">
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+      <c r="A47" s="16">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14">
+      <c r="B47" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16">
         <v>43</v>
       </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14">
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14">
+        <v>194</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16">
         <v>43</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14">
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16">
         <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="16">
         <v>40</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="16">
         <v>42</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16">
         <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="16">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14">
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16">
         <v>41</v>
       </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14">
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51" s="16">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14">
+      <c r="B51" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16">
         <v>40</v>
       </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14">
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="16">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="14">
+        <v>147</v>
+      </c>
+      <c r="C52" s="16">
         <v>39</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14">
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16">
         <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53" s="16">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14">
+      <c r="B53" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16">
         <v>38</v>
       </c>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14">
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16">
         <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="16">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14">
+        <v>209</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16">
         <v>34</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14">
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="16">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="14">
+        <v>159</v>
+      </c>
+      <c r="C55" s="16">
         <v>33</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14">
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16">
         <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="16">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14">
+      <c r="B56" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
         <v>30</v>
       </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14">
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16">
         <v>30</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14">
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
-        <f t="shared" si="0"/>
+      <c r="A58" s="16">
         <v>49</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="14">
+        <v>132</v>
+      </c>
+      <c r="C58" s="16">
         <v>29</v>
       </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14">
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+    <row r="59" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14">
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16">
         <v>28</v>
       </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14">
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+    <row r="60" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="14">
+        <v>171</v>
+      </c>
+      <c r="C60" s="16">
         <v>27</v>
       </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14">
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+    <row r="61" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14">
+      <c r="B61" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16">
         <v>25</v>
       </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14">
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+    <row r="62" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C62" s="14">
+      <c r="B62" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="16">
         <v>24</v>
       </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14">
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14">
+    <row r="63" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16">
         <v>24</v>
       </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14">
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+    <row r="64" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
         <v>55</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="14">
+        <v>183</v>
+      </c>
+      <c r="C64" s="16">
         <v>22</v>
       </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14">
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+    <row r="65" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14">
+      <c r="B65" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16">
         <v>17</v>
       </c>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14">
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+    <row r="66" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14">
+      <c r="B66" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16">
         <v>15</v>
       </c>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14">
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
+    <row r="67" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14">
+      <c r="B67" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16">
         <v>14</v>
       </c>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14">
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
-        <f t="shared" ref="A12:A68" si="1">A67+1</f>
+      <c r="A68" s="9">
+        <f t="shared" ref="A68" si="1">A67+1</f>
         <v>59</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
+      <c r="B68" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="6">
+      <c r="A69" s="8"/>
+      <c r="B69" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="11">
         <v>854</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="11">
         <v>832</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="11">
         <v>1150</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="11">
         <v>760</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="11">
         <v>994</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="11">
         <v>30</v>
       </c>
-      <c r="I69" s="6">
-        <v>-75</v>
-      </c>
-      <c r="J69" s="6">
-        <v>4545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="I69" s="11">
+        <v>-76</v>
+      </c>
+      <c r="J69" s="11">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J2"/>
@@ -5914,7 +7578,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="37" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5922,8 +7586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAC750F-14C9-DC46-A1A7-6369D3175D3A}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5941,30 +7605,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3">
         <v>-32</v>
@@ -5975,29 +7639,29 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3">
         <v>-24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B4" s="3">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3">
         <v>10</v>
@@ -6008,24 +7672,24 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -6039,16 +7703,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -6062,16 +7726,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -6085,16 +7749,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -6108,16 +7772,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -6134,13 +7798,13 @@
         <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -6154,16 +7818,16 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -6180,13 +7844,13 @@
         <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -6200,16 +7864,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -6223,16 +7887,16 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -6249,13 +7913,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -6272,13 +7936,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -6292,16 +7956,16 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -6318,13 +7982,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -6338,16 +8002,16 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -6361,16 +8025,16 @@
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -6387,13 +8051,13 @@
         <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -6410,13 +8074,13 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -6430,16 +8094,16 @@
         <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -6453,16 +8117,16 @@
         <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -6476,16 +8140,16 @@
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -6502,13 +8166,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -6522,16 +8186,16 @@
         <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -6545,16 +8209,16 @@
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -6571,13 +8235,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -6591,21 +8255,21 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B33" s="3">
         <v>50</v>
@@ -6614,21 +8278,21 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3">
         <v>45</v>
@@ -6637,21 +8301,21 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B35" s="3">
         <v>44</v>
@@ -6660,21 +8324,21 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B36" s="3">
         <v>43</v>
@@ -6683,21 +8347,21 @@
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B37" s="3">
         <v>42</v>
@@ -6706,21 +8370,21 @@
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B38" s="3">
         <v>41</v>
@@ -6729,21 +8393,21 @@
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B39" s="3">
         <v>40</v>
@@ -6752,21 +8416,21 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B40" s="3">
         <v>39</v>
@@ -6775,21 +8439,21 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3">
         <v>38</v>
@@ -6798,21 +8462,21 @@
         <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B42" s="3">
         <v>37</v>
@@ -6821,21 +8485,21 @@
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B43" s="3">
         <v>36</v>
@@ -6847,18 +8511,18 @@
         <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B44" s="3">
         <v>35</v>
@@ -6870,18 +8534,18 @@
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B45" s="3">
         <v>34</v>
@@ -6890,21 +8554,21 @@
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B46" s="3">
         <v>33</v>
@@ -6916,18 +8580,18 @@
         <v>6</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B47" s="3">
         <v>32</v>
@@ -6939,18 +8603,18 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B48" s="3">
         <v>31</v>
@@ -6959,21 +8623,21 @@
         <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B49" s="3">
         <v>30</v>
@@ -6982,21 +8646,21 @@
         <v>17</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B50" s="3">
         <v>29</v>
@@ -7008,18 +8672,18 @@
         <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B51" s="3">
         <v>28</v>
@@ -7028,21 +8692,21 @@
         <v>19</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B52" s="3">
         <v>27</v>
@@ -7051,21 +8715,21 @@
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B53" s="3">
         <v>26</v>
@@ -7074,21 +8738,21 @@
         <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B54" s="3">
         <v>25</v>
@@ -7097,21 +8761,21 @@
         <v>22</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B55" s="3">
         <v>24</v>
@@ -7120,21 +8784,21 @@
         <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B56" s="3">
         <v>23</v>
@@ -7143,16 +8807,16 @@
         <v>24</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -7172,7 +8836,7 @@
         <v>21.38</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -7186,13 +8850,13 @@
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1">
         <v>21.54</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -7212,7 +8876,7 @@
         <v>22.19</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -7226,13 +8890,13 @@
         <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E60" s="1">
         <v>22.32</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -7252,7 +8916,7 @@
         <v>24.15</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -7272,7 +8936,7 @@
         <v>24.44</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -7286,13 +8950,13 @@
         <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E63" s="1">
         <v>26.27</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -7312,7 +8976,7 @@
         <v>21.16</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -7326,13 +8990,13 @@
         <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E65" s="1">
         <v>25.41</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -7346,13 +9010,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E66" s="1">
         <v>26.25</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -7372,7 +9036,7 @@
         <v>27.59</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -7386,13 +9050,13 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E68" s="1">
         <v>35.11</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -7412,7 +9076,7 @@
         <v>36.24</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -7426,13 +9090,13 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E70" s="1">
         <v>36.29</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -7446,13 +9110,13 @@
         <v>4</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E71" s="1">
         <v>38.15</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -7466,13 +9130,13 @@
         <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E72" s="1">
         <v>41.09</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -7486,13 +9150,13 @@
         <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E73" s="1">
         <v>41.18</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -7506,13 +9170,13 @@
         <v>7</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E74" s="1">
         <v>41.31</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -7526,13 +9190,13 @@
         <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E75" s="1">
         <v>43.24</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -7546,13 +9210,13 @@
         <v>9</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E76" s="1">
         <v>44.29</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -7566,13 +9230,13 @@
         <v>10</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E77" s="1">
         <v>45.04</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -7586,13 +9250,13 @@
         <v>11</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E78" s="1">
         <v>46.05</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -7612,7 +9276,7 @@
         <v>47.08</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -7629,13 +9293,13 @@
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -7649,16 +9313,16 @@
         <v>2</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -7675,13 +9339,13 @@
         <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -7695,16 +9359,16 @@
         <v>4</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -7718,16 +9382,16 @@
         <v>5</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -7741,16 +9405,16 @@
         <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -7764,16 +9428,16 @@
         <v>7</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -7787,16 +9451,16 @@
         <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -7810,16 +9474,16 @@
         <v>9</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -7833,16 +9497,16 @@
         <v>10</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -7856,16 +9520,16 @@
         <v>11</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -7879,16 +9543,16 @@
         <v>12</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -7902,16 +9566,16 @@
         <v>13</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -7925,16 +9589,16 @@
         <v>14</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -7948,16 +9612,16 @@
         <v>15</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -7974,13 +9638,13 @@
         <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -7994,16 +9658,16 @@
         <v>17</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -8017,16 +9681,16 @@
         <v>18</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -8043,13 +9707,13 @@
         <v>9</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -8063,16 +9727,16 @@
         <v>20</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -8086,16 +9750,16 @@
         <v>21</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -8109,16 +9773,16 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -8132,16 +9796,16 @@
         <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -8155,16 +9819,16 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -8178,16 +9842,16 @@
         <v>4</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -8201,16 +9865,16 @@
         <v>5</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -8227,13 +9891,13 @@
         <v>12</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -8247,16 +9911,16 @@
         <v>7</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -8270,16 +9934,16 @@
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -8293,16 +9957,16 @@
         <v>9</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -8316,16 +9980,16 @@
         <v>10</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -8342,13 +10006,13 @@
         <v>13</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -8362,16 +10026,16 @@
         <v>12</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -8385,16 +10049,16 @@
         <v>13</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -8408,16 +10072,16 @@
         <v>14</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -8434,13 +10098,13 @@
         <v>6</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -8451,16 +10115,16 @@
         <v>16</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -8474,16 +10138,16 @@
         <v>17</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -8497,16 +10161,16 @@
         <v>18</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -8523,13 +10187,13 @@
         <v>5</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -8546,13 +10210,13 @@
         <v>10</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -8569,13 +10233,13 @@
         <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -8589,16 +10253,16 @@
         <v>22</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -8612,16 +10276,16 @@
         <v>23</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -8635,16 +10299,16 @@
         <v>24</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -8658,16 +10322,16 @@
         <v>25</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -8681,16 +10345,16 @@
         <v>26</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -8704,16 +10368,16 @@
         <v>27</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -8727,16 +10391,16 @@
         <v>28</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -8750,16 +10414,16 @@
         <v>29</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -8773,16 +10437,16 @@
         <v>30</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -8796,16 +10460,16 @@
         <v>31</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -8819,16 +10483,16 @@
         <v>32</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -8842,16 +10506,16 @@
         <v>33</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -8865,16 +10529,16 @@
         <v>34</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
